--- a/data/pravno/satuti/hjs/status-HJS-a-2024.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
+++ b/data/pravno/satuti/hjs/status-HJS-a-2024.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:X1"/>
+  <dimension ref="B1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,8 @@
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
